--- a/src/IndividualAssignment/549 group/data/template/assessment.xlsx
+++ b/src/IndividualAssignment/549 group/data/template/assessment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11540"/>
+    <workbookView windowWidth="27660" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Porter's Fove Force Model" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="284">
   <si>
     <t>Porter's Five Force Model</t>
   </si>
@@ -705,6 +705,9 @@
     <t>Notes &amp; Rationale</t>
   </si>
   <si>
+    <t>Reference</t>
+  </si>
+  <si>
     <t>Primary</t>
   </si>
   <si>
@@ -729,7 +732,13 @@
     <t>Competitive Parity</t>
   </si>
   <si>
-    <t>Efficient logistics &amp; scale; matched by Apple, Xiaomi, etc.</t>
+    <t>Samsung has one of the world’s largest electronics supply chains, but Apple, Xiaomi, Oppo, and Huawei operate equally globalized networks.
+Reason:
+Global offshore manufacturing across Vietnam, China, India, Brazil mirrors competitors.
+Supply-chain optimization tools (ERP, predictive analytics) are industry standard.</t>
+  </si>
+  <si>
+    <t>https://supplychaindigital.com/top10/top-10-biggest-supply-chains-2025</t>
   </si>
   <si>
     <t>Strategic supplier partnerships</t>
@@ -744,7 +753,11 @@
     <t>Sustainable Advantage</t>
   </si>
   <si>
-    <t>Deep co-development with Solex (UTG), Magna (hinges); near-vertical control in foldable supply chain (e.g., exclusive agreements, joint R&amp;D).</t>
+    <t>Samsung’s UTG (Ultra-Thin Glass) and hinge system co-developed with S-Lec (Sekisui), Schott, and Corning/Magna partners create a foldable supply-chain barrier.
+Reason:
+Exclusive co-development agreements restrict competitor access.
+Joint patents increase imitation difficulty.
+Foldable manufacturing requires 3–5 years of specialist knowledge.</t>
   </si>
   <si>
     <t>Operations</t>
@@ -756,13 +769,22 @@
     <t>Tangible</t>
   </si>
   <si>
-    <t>Large-scale fabs (Vietnam, Pyeongtaek); replicable with capital.</t>
+    <t>Large-scale fabs; replicable with capital.</t>
+  </si>
+  <si>
+    <t>https://semiconductor.samsung.com/foundry/manufacturing/</t>
   </si>
   <si>
     <t>Advanced operational capabilities (AI-driven smart factories)</t>
   </si>
   <si>
-    <t>AI-powered quality control, digital twin production, &gt;90% foldable yield; enables rapid product switching—hard to replicate at scale.</t>
+    <t>Samsung’s Vietnam and Korea facilities use digital twins, AI-driven QC, and automated decision systems.
+Reason:
+90% yield in foldables reported by Omdia is industry-leading.
+AI-based defect detection reduces cycle time.</t>
+  </si>
+  <si>
+    <t>https://iottechnews.com/news/samsung-manufacturing-digital-twins-ai-and-robotics/</t>
   </si>
   <si>
     <t>AMOLED / Foldable Display Patents (e.g., UTG, hinge integration)</t>
@@ -774,7 +796,10 @@
     <t>Very High</t>
   </si>
   <si>
-    <t>Samsung Display dominates global flexible OLED supply; core IP protected via layered patents.</t>
+    <t>One of Samsung’s strongest advantages.
+Reason:
+Samsung Display controls &gt;70% of global flexible OLED market (Omdia).
+Patents across UTG, hinge engineering, and OLED materials create very high imitation difficulty.</t>
   </si>
   <si>
     <t>Outbound Logistics</t>
@@ -786,6 +811,9 @@
     <t>Extensive retail &amp; carrier partnerships; comparable to Apple/Xiaomi.</t>
   </si>
   <si>
+    <t>https://www.idc.com/promo/smartphone-market-share/market-share/</t>
+  </si>
+  <si>
     <t>Marketing &amp; Sales</t>
   </si>
   <si>
@@ -795,7 +823,13 @@
     <t>Intangible</t>
   </si>
   <si>
-    <t>Strong in APAC, LatAm, and enterprise (Knox); premium perception lagging behind Apple in US/EU high-end, but broad-based loyalty secures advantage.</t>
+    <t>Strong in APAC, LatAm, and enterprise (Knox); premium perception lagging behind Apple in US/EU high-end, but broad-based loyalty secures advantage.Samsung is consistently ranked among the most valuable brands globally.
+Reason:
+Strong hardware trust;
+Weakness only in ultra-premium US/EU vs Apple.</t>
+  </si>
+  <si>
+    <t>https://interbrand.com/best-global-brands/global/</t>
   </si>
   <si>
     <t>Marketing capabilities</t>
@@ -813,6 +847,9 @@
     <t>Cross-device synergy (e.g., Watch→Phone→Tab handoff, DeX); hardware-software-service integration creates switching costs—difficult for Android rivals to match.</t>
   </si>
   <si>
+    <t>https://counterpointresearch.com/en/insights/apples-device-ecosystem-multiplies-its-brand-strength</t>
+  </si>
+  <si>
     <t>Service</t>
   </si>
   <si>
@@ -831,6 +868,9 @@
     <t>Reinforced by organizational redesign (2023: DX Division unifies hardware teams); C-Lab &amp; SAIT drive radical innovation (e.g., rollable prototypes, AI-first design).</t>
   </si>
   <si>
+    <t>https://insights.samsung.com/search/display</t>
+  </si>
+  <si>
     <t>Support</t>
   </si>
   <si>
@@ -861,19 +901,31 @@
     <t>Patents &amp; IP portfolio (foldables, imaging, SoC, materials)</t>
   </si>
   <si>
-    <t>#1 in global patent filings (2023–2025); foundational in UTG, ISOCELL, Exynos AI accelerators.</t>
+    <t>global patent filings (2023–2025); foundational in UTG, ISOCELL, Exynos AI accelerators.</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/samsung-takes-top-spot-u-090000010.html?guccounter=1&amp;guce_referrer=aHR0cHM6Ly93d3cuZ29vZ2xlLmNvbS8&amp;guce_referrer_sig=AQAAACDFsZmHmYxiC3aYay3BohgYf21ezBkFi0T48vuZ_0QF9-uI9DyiyYwPio_-E1XDmYrGR0Ro9nR71cpWxIrQOGmCqQTMbsZa_JDy0OycjclxOw3hwMXdONOHdeLSHY3AINcTB7sJdlavmyzvNToaXlsZvIB8JAPVGYkzvGoSd3cY</t>
   </si>
   <si>
     <t>R&amp;D budget</t>
   </si>
   <si>
-    <t>~$20B/year group-wide; comparable to Huawei, Apple.</t>
+    <t>Apple ~$31.4 billion Apple's R&amp;D as a percentage of revenue is increasing, reaching 8.0% in 2024.
+Huawei ~$27.3 billion Huawei consistently invests over 10% of its revenue in R&amp;D, reaching 20.8% in 2024.
+Samsung ~$24.1 billion This was a record-breaking R&amp;D investment for Samsung in 2024, a 23.5% increase from the previous year.</t>
+  </si>
+  <si>
+    <t>https://www.rdworldonline.com/top-15-rd-spenders-of-2024/#:~:text=In%20the%20case%20of%20Huawei,rates%20during%20the%20relevant%20periods.</t>
   </si>
   <si>
     <t>On-device AI integration capability (newly added)</t>
   </si>
   <si>
-    <t>End-to-end AI stack: NPU-optimized chips (Exynos 2400+/Snapdragon 8 Gen3 for Galaxy), Galaxy AI (LLM on device), One UI 6.1+ deep OS integration. Differentiates in real-time translation, generative photo editing, etc.</t>
+    <t>Galaxy AI + NPU-optimized Exynos/Snapdragon integration creates rare on-device AI performance among Android brands.</t>
+  </si>
+  <si>
+    <t>https://signal65.com/samsung-galaxy-ai-revolution/
+https://counterpointresearch.com/en/insights/post-insight-counterpoint-conversations-samsung-agentic-ai-strategy-seamless-secure-user-interactions</t>
   </si>
   <si>
     <t>Procurement</t>
@@ -888,7 +940,10 @@
     <t>Competitive Advantage</t>
   </si>
   <si>
-    <t>“Dual-source + self-supply” model: DRAM, NAND, displays, batteries (SDI) in-house; reduces supply risk and boosts margin control—superior to pure fabless OEMs.</t>
+    <t>Vertical integration reduces cost and supply risk, especially in:
+Memory (DRAM/NAND)
+Displays
+Batteries (SDI)</t>
   </si>
   <si>
     <t>Meaning</t>
@@ -985,6 +1040,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>S1.</t>
     </r>
     <r>
@@ -1120,6 +1183,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>W1.</t>
     </r>
     <r>
@@ -1226,6 +1297,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>O1.</t>
     </r>
     <r>
@@ -1362,6 +1441,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>T1.</t>
     </r>
     <r>
@@ -1648,13 +1735,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1668,6 +1748,13 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2158,12 +2245,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2288,7 +2375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2303,9 +2390,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2336,9 +2420,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2347,16 +2428,16 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2385,9 +2466,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2925,275 +3003,275 @@
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.25" style="24" customWidth="1"/>
-    <col min="2" max="2" width="24.8671875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.0625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="41.1484375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="25.25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.8671875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="45.703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.0625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="41.1484375" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="27">
         <v>4.16</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:5">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:5">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="28">
         <v>4</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:5">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <v>4</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:5">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="28">
         <v>4</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>3</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:5">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="27">
         <v>5</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="30">
         <v>1.75</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
-      <c r="A10" s="20"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" s="18" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A11" s="20"/>
+    <row r="11" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" s="18" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A12" s="20"/>
+    <row r="12" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="2">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" s="18" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A13" s="20"/>
+    <row r="13" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="2">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" s="18" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A14" s="20"/>
+    <row r="14" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="2">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" s="18" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A15" s="20"/>
+    <row r="15" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="2">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" s="18" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A16" s="20"/>
+    <row r="16" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" s="18" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A17" s="20"/>
+    <row r="17" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="2">
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -3201,31 +3279,31 @@
       </c>
     </row>
     <row r="18" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="29">
         <v>2.5</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" ht="33" customHeight="1" spans="1:5">
-      <c r="A19" s="20"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="2">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -3233,14 +3311,14 @@
       </c>
     </row>
     <row r="20" ht="33" customHeight="1" spans="1:5">
-      <c r="A20" s="20"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="2">
         <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -3248,14 +3326,14 @@
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:5">
-      <c r="A21" s="20"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="2">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -3263,14 +3341,14 @@
       </c>
     </row>
     <row r="22" ht="33" customHeight="1" spans="1:5">
-      <c r="A22" s="20"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="2">
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -3278,14 +3356,14 @@
       </c>
     </row>
     <row r="23" ht="33" customHeight="1" spans="1:5">
-      <c r="A23" s="20"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="2">
         <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3293,31 +3371,31 @@
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:5">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="29">
         <v>2</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" ht="33" customHeight="1" spans="1:5">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3325,14 +3403,14 @@
       </c>
     </row>
     <row r="26" ht="33" customHeight="1" spans="1:5">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="2">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -3340,14 +3418,14 @@
       </c>
     </row>
     <row r="27" ht="33" customHeight="1" spans="1:5">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3355,14 +3433,14 @@
       </c>
     </row>
     <row r="28" ht="33" customHeight="1" spans="1:5">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="2">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3370,14 +3448,14 @@
       </c>
     </row>
     <row r="29" ht="33" customHeight="1" spans="1:5">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="31">
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3385,31 +3463,31 @@
       </c>
     </row>
     <row r="30" ht="33" customHeight="1" spans="1:5">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="28">
         <v>2.8</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" ht="33" customHeight="1" spans="1:5">
-      <c r="A31" s="35"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="2">
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -3417,14 +3495,14 @@
       </c>
     </row>
     <row r="32" ht="33" customHeight="1" spans="1:5">
-      <c r="A32" s="35"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="2">
         <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -3432,14 +3510,14 @@
       </c>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:5">
-      <c r="A33" s="35"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="2">
         <v>3</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -3447,14 +3525,14 @@
       </c>
     </row>
     <row r="34" ht="33" customHeight="1" spans="1:5">
-      <c r="A34" s="35"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="2">
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -3462,14 +3540,14 @@
       </c>
     </row>
     <row r="35" ht="33" customHeight="1" spans="1:5">
-      <c r="A35" s="35"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="2">
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -3477,18 +3555,18 @@
       </c>
     </row>
     <row r="36" ht="29" customHeight="1" spans="1:5">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="33">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="20"/>
+      <c r="A38" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3514,72 +3592,72 @@
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:4">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" ht="51" spans="1:4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" ht="34" spans="1:4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" ht="34" spans="1:4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3592,607 +3670,705 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="12" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.6171875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="29.8125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.8046875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.421875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="7.6796875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="12.234375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="17" customWidth="1"/>
-    <col min="9" max="9" width="21.75" style="16" customWidth="1"/>
-    <col min="10" max="10" width="37.4921875" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="12" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.1953125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.265625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.8046875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.421875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="7.6796875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.234375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="16.796875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="37.4921875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="46.09375" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="17" spans="1:10">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="13" customFormat="1" ht="34" spans="1:11">
+      <c r="A1" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" ht="34" spans="1:10">
-      <c r="A2" s="20" t="s">
+      <c r="K1" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="20" t="s">
+    </row>
+    <row r="2" ht="135" spans="1:11">
+      <c r="A2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" ht="168" spans="1:11">
+      <c r="A3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" ht="34" spans="1:11">
+      <c r="A4" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" ht="118" spans="1:11">
+      <c r="A5" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" ht="101" spans="1:11">
+      <c r="A6" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" ht="34" spans="1:11">
+      <c r="A7" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="E7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="H7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" ht="51" spans="1:10">
-      <c r="A3" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="J7" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" ht="135" spans="1:11">
+      <c r="A8" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="B8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" ht="34" spans="1:11">
+      <c r="A9" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" ht="68" spans="1:11">
+      <c r="A10" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" ht="34" spans="1:11">
+      <c r="A11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" ht="68" spans="1:11">
+      <c r="A12" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" ht="51" spans="1:11">
+      <c r="A13" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" ht="51" spans="1:11">
+      <c r="A14" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" ht="135" spans="1:11">
+      <c r="A15" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" ht="135" spans="1:11">
+      <c r="A16" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="E16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" ht="68" spans="1:11">
+      <c r="A17" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="E17" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" ht="34" spans="1:10">
-      <c r="A4" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="H17" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="J17" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" ht="84" spans="1:11">
+      <c r="A18" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="1:10">
-      <c r="A5" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" ht="34" spans="1:10">
-      <c r="A6" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" ht="34" spans="1:10">
-      <c r="A7" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="F18" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" ht="68" spans="1:10">
-      <c r="A8" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" ht="34" spans="1:10">
-      <c r="A9" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="G18" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" ht="68" spans="1:10">
-      <c r="A10" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" ht="34" spans="1:10">
-      <c r="A11" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" ht="68" spans="1:10">
-      <c r="A12" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" ht="51" spans="1:10">
-      <c r="A13" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" ht="51" spans="1:10">
-      <c r="A14" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="1:10">
-      <c r="A15" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" ht="34" spans="1:10">
-      <c r="A16" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" ht="84" spans="1:10">
-      <c r="A17" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" ht="68" spans="1:10">
-      <c r="A18" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>205</v>
-      </c>
+      <c r="I18" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="1048569" s="14" customFormat="1" spans="5:12">
+      <c r="E1048569" s="15"/>
+      <c r="F1048569" s="15"/>
+      <c r="G1048569" s="15"/>
+      <c r="H1048569" s="15"/>
+      <c r="K1048569" s="17"/>
+      <c r="L1048569" s="16"/>
+    </row>
+    <row r="1048570" s="14" customFormat="1" spans="5:12">
+      <c r="E1048570" s="15"/>
+      <c r="F1048570" s="15"/>
+      <c r="G1048570" s="15"/>
+      <c r="H1048570" s="15"/>
+      <c r="L1048570" s="16"/>
+    </row>
+    <row r="1048571" s="14" customFormat="1" spans="5:12">
+      <c r="E1048571" s="15"/>
+      <c r="F1048571" s="15"/>
+      <c r="G1048571" s="15"/>
+      <c r="H1048571" s="15"/>
+      <c r="L1048571" s="16"/>
+    </row>
+    <row r="1048572" s="14" customFormat="1" spans="5:12">
+      <c r="E1048572" s="15"/>
+      <c r="F1048572" s="15"/>
+      <c r="G1048572" s="15"/>
+      <c r="H1048572" s="15"/>
+      <c r="L1048572" s="16"/>
+    </row>
+    <row r="1048573" s="14" customFormat="1" spans="5:12">
+      <c r="E1048573" s="15"/>
+      <c r="F1048573" s="15"/>
+      <c r="G1048573" s="15"/>
+      <c r="H1048573" s="15"/>
+      <c r="L1048573" s="16"/>
+    </row>
+    <row r="1048574" s="14" customFormat="1" spans="5:12">
+      <c r="E1048574" s="15"/>
+      <c r="F1048574" s="15"/>
+      <c r="G1048574" s="15"/>
+      <c r="H1048574" s="15"/>
+      <c r="L1048574" s="16"/>
+    </row>
+    <row r="1048575" s="14" customFormat="1" spans="5:12">
+      <c r="E1048575" s="15"/>
+      <c r="F1048575" s="15"/>
+      <c r="G1048575" s="15"/>
+      <c r="H1048575" s="15"/>
+      <c r="L1048575" s="16"/>
+    </row>
+    <row r="1048576" s="14" customFormat="1" spans="5:12">
+      <c r="E1048576" s="15"/>
+      <c r="F1048576" s="15"/>
+      <c r="G1048576" s="15"/>
+      <c r="H1048576" s="15"/>
+      <c r="L1048576" s="16"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J18" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" display="https://supplychaindigital.com/top10/top-10-biggest-supply-chains-2025"/>
+    <hyperlink ref="K4" r:id="rId2" display="https://semiconductor.samsung.com/foundry/manufacturing/"/>
+    <hyperlink ref="K5" r:id="rId3" display="https://iottechnews.com/news/samsung-manufacturing-digital-twins-ai-and-robotics/"/>
+    <hyperlink ref="K7" r:id="rId4" display="https://www.idc.com/promo/smartphone-market-share/market-share/"/>
+    <hyperlink ref="K8" r:id="rId5" display="https://interbrand.com/best-global-brands/global/"/>
+    <hyperlink ref="K10" r:id="rId6" display="https://counterpointresearch.com/en/insights/apples-device-ecosystem-multiplies-its-brand-strength"/>
+    <hyperlink ref="K16" r:id="rId7" display="https://www.rdworldonline.com/top-15-rd-spenders-of-2024/#:~:text=In%20the%20case%20of%20Huawei,rates%20during%20the%20relevant%20periods."/>
+    <hyperlink ref="K17" r:id="rId8" display="https://signal65.com/samsung-galaxy-ai-revolution/&#10;https://counterpointresearch.com/en/insights/post-insight-counterpoint-conversations-samsung-agentic-ai-strategy-seamless-secure-user-interactions"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4209,111 +4385,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="27.34375" style="11" customWidth="1"/>
-    <col min="2" max="5" width="32.7578125" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="8.4375" style="10"/>
+    <col min="1" max="1" width="27.34375" style="10" customWidth="1"/>
+    <col min="2" max="5" width="32.7578125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.4375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="18" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="9" customFormat="1" ht="18" spans="1:5">
+      <c r="A1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" s="10" customFormat="1" ht="53" spans="1:5">
-      <c r="A2" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="53" spans="1:5">
-      <c r="A3" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="B1" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" s="9" customFormat="1" ht="53" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="53" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="71" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="1" ht="53" spans="1:5">
+      <c r="A5" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="71" spans="1:5">
-      <c r="A4" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" s="10" customFormat="1" ht="53" spans="1:5">
-      <c r="A5" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" s="10" customFormat="1" ht="88" spans="1:5">
-      <c r="A6" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>232</v>
+      <c r="B5" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="88" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4340,49 +4516,49 @@
   <sheetData>
     <row r="1" ht="17" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>235</v>
+        <v>244</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="2" ht="152" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" ht="202" spans="1:3">
+        <v>247</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" ht="168" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>243</v>
+      <c r="A4" s="7"/>
+      <c r="B4" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4409,128 +4585,128 @@
   <sheetData>
     <row r="1" ht="17" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" ht="34" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" ht="34" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" ht="34" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" ht="34" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" ht="17" spans="1:4">
       <c r="A7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" ht="17" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" ht="34" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" ht="34" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" ht="17" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/src/IndividualAssignment/549 group/data/template/assessment.xlsx
+++ b/src/IndividualAssignment/549 group/data/template/assessment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11640" activeTab="2"/>
+    <workbookView windowWidth="27660" windowHeight="11320" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Porter's Fove Force Model" sheetId="2" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="Stakeholder Analysis" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'VRIO &amp; Porter''s value chain'!$A$1:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'VRIO &amp; Porter''s value chain'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Porter''s Fove Force Model'!$A$1:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'VRIO Evaluation DegreeCompetiti'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="282">
   <si>
     <t>Porter's Five Force Model</t>
   </si>
@@ -56,7 +57,7 @@
     <t>The Degree of Existing Rivalry</t>
   </si>
   <si>
-    <t>Combine six dimensions to evaluate the degree</t>
+    <t xml:space="preserve">Total                                                                           </t>
   </si>
   <si>
     <t>Rate Samsung’s smartphone market (or any market) 1–5 on each dimension.
@@ -106,6 +107,7 @@
   </si>
   <si>
     <t>The global smartphone market has been mature and slow-growing since around 2017.
+https://www.c114.com.cn/market/38/a1284923.html
 Annual shipment growth is typically between 0–3%, with occasional declines.
 When the market is stagnant, brands must fight harder for share, intensifying rivalry.</t>
   </si>
@@ -140,7 +142,7 @@
   </si>
   <si>
     <t>Android-to-Android switching costs are very low because:
-Google ecosystem is universal
+Android ecosystem is universal
 Data migration is simple
 Apps and settings transfer easily
 Only Apple offers high ecosystem lock-in; among Android brands, users switch frequently.</t>
@@ -187,9 +189,6 @@
     <t>Threat of Potential Entrants</t>
   </si>
   <si>
-    <t>Combine eight dimensions to evaluate the threat</t>
-  </si>
-  <si>
     <t>Evaluate each dimension for Samsung’s smartphone market (score 1–5).
 Average the scores to get overall threat of potential entrants.
 Interpret:
@@ -207,11 +206,11 @@
   </si>
   <si>
     <t xml:space="preserve">What it measures: How expensive it is to start a business in this industry.
- 5 Very low investment needed; easy to raise funds. 
+ 1  Extremely high investment; only large firms can afford. 
+ 2  High investment; difficult for most new entrants. 
+ 3  Moderate investment; requires some significant funding. 
  4 Low investment; possible with small investors. 
- 3  Moderate investment; requires some significant funding. 
- 2  High investment; difficult for most new entrants. 
- 1  Extremely high investment; only large firms can afford. </t>
+ 5 Very low investment needed; easy to raise funds. </t>
   </si>
   <si>
     <t>High investment in R&amp;D, manufacturing, and marketing. Very expensive to start a global smartphone brand.</t>
@@ -221,11 +220,11 @@
   </si>
   <si>
     <t xml:space="preserve">What it measures: Advantages of producing at large scale.
-5  No scale advantage; small producers compete easily. 
+1  Very high scale advantage; new entrants almost impossible without large-scale production. 
+2 Significant scale advantage; newcomers must invest heavily. 
+3  Moderate scale advantage; some cost pressure on new entrants. 
 4  Minor scale advantage; small producers slightly disadvantaged. 
-3  Moderate scale advantage; some cost pressure on new entrants. 
-2 Significant scale advantage; newcomers must invest heavily. 
-1  Very high scale advantage; new entrants almost impossible without large-scale production. </t>
+5  No scale advantage; small producers compete easily. </t>
   </si>
   <si>
     <t>Samsung has large-scale production, vertical integration, and supply chain efficiency. New entrants struggle to compete on cost.</t>
@@ -235,11 +234,11 @@
   </si>
   <si>
     <t xml:space="preserve">What it measures: How difficult it is for customers to leave existing brands.
-5  Almost no loyalty; customers switch easily. 
-4  Low loyalty; switching is easy for price-sensitive customers. 
+1  Very strong loyalty; high switching cost or ecosystem lock-in. 
+2  Strong loyalty; switching requires effort or incentive. 
 3  Moderate loyalty; some attachment to brands. 
-2  Strong loyalty; switching requires effort or incentive. 
-1  Very strong loyalty; high switching cost or ecosystem lock-in. </t>
+4  Low loyalty; switching is easy for price-sensitive customers.
+5  Almost no loyalty; customers switch easily. </t>
   </si>
   <si>
     <t>Strong brand recognition and loyalty. Switching to a new unknown brand is difficult for consumers.</t>
@@ -249,11 +248,11 @@
   </si>
   <si>
     <t xml:space="preserve">What it measures: Ease of entering retail, carrier, or online channels.
-5  Distribution channels wide open for newcomers.  
+1  Very high difficulty; incumbents dominate all key channels. 
+2  High difficulty; strong incumbents control key channels.  
+3  Moderate difficulty; some channels hard to access.  
 4  Mostly open channels; minor resistance.  
-3  Moderate difficulty; some channels hard to access.  
-2  High difficulty; strong incumbents control key channels.  
-1  Very high difficulty; incumbents dominate all key channels.  </t>
+5  Distribution channels wide open for newcomers.  </t>
   </si>
   <si>
     <t>Established carriers, retail chains, and online partnerships. New entrants face major barriers.</t>
@@ -277,11 +276,11 @@
   </si>
   <si>
     <t xml:space="preserve">What it measures: Legal, environmental, and safety requirements.
-5 No regulatory hurdles; easy to comply. 
+1  Very strict regulations; entry extremely costly or slow. 
+2  High regulations; significant compliance cost. 
+3  Moderate regulations; some complexity and cost. 
 4 Minor regulations; easy to meet. 
-3  Moderate regulations; some complexity and cost. 
-2  High regulations; significant compliance cost. 
-1  Very strict regulations; entry extremely costly or slow. </t>
+5 No regulatory hurdles; easy to comply. </t>
   </si>
   <si>
     <t>Compliance with safety, environmental, and privacy regulations is costly and complex.</t>
@@ -291,11 +290,11 @@
   </si>
   <si>
     <t xml:space="preserve">What it measures: Likelihood of aggressive defensive actions.
-5  No retaliation expected.  
+1 Very strong retaliation; aggressive price wars, marketing, or legal challenges expected.  
+2 Strong retaliation; incumbents actively deter entrants.  
+3   Moderate retaliation; incumbents may respond to defend share.  
 4  Minimal retaliation.  
-3   Moderate retaliation; incumbents may respond to defend share.  
-2 Strong retaliation; incumbents actively deter entrants.  
-1 Very strong retaliation; aggressive price wars, marketing, or legal challenges expected.  </t>
+5  No retaliation expected.  </t>
   </si>
   <si>
     <t>Aggressive pricing, marketing, and legal actions expected from Apple, Xiaomi, Huawei.</t>
@@ -305,20 +304,17 @@
   </si>
   <si>
     <t xml:space="preserve">What it measures: The advantage incumbents have through integrated ecosystems.
-5  No ecosystem effect; easy for customers to switch.  
+1 Very strong ecosystem; customers almost locked in.  
+2  Strong ecosystem; switching requires effort. 
+3  Moderate ecosystem effect; some customer retention.  
 4  Weak ecosystem; low lock-in.  
-3  Moderate ecosystem effect; some customer retention.  
-2 Strong ecosystem; switching requires effort.  
-1 Very strong ecosystem; customers almost locked in.  </t>
+5  No ecosystem effect; easy for customers to switch.  </t>
   </si>
   <si>
     <t>Samsung’s ecosystem (One UI, Galaxy Watch, SmartThings) increases loyalty and discourages new entrants.</t>
   </si>
   <si>
     <t>Bargaining Power of Suppliers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combine dimensions to evaluate the bargaining power </t>
   </si>
   <si>
     <t xml:space="preserve">Score each dimension from 1–5.
@@ -340,11 +336,11 @@
   <si>
     <t>What it measures: How many suppliers exist for key components and whether Samsung can easily switch.
 Scoring:
-5  Only 1 supplier; Samsung fully dependent (very high supplier power)
+1  Many suppliers; no single supplier dominates (very low supplier power)
+2  Many suppliers; some are comparable
+3  Several suppliers, but one dominates
 4  2–3 suppliers; Samsung highly dependent
-3  Several suppliers, but one dominates
-2  Many suppliers; some are comparable
-1  Many suppliers; no single supplier dominates (very low supplier power)</t>
+5  Only 1 supplier; Samsung fully dependent (very high supplier power)</t>
   </si>
   <si>
     <t>Samsung sources components like processors from a few major players (Qualcomm, MediaTek) but also produces its own Exynos chips. Display panels are more concentrated (Samsung and LG dominate), so supplier power is moderate.</t>
@@ -370,11 +366,11 @@
   <si>
     <t>What it measures: Whether suppliers could enter Samsung’s smartphone market.
 Scoring:
-5  Very likely supplier could compete directly
+1  Very unlikely supplier would compete
+2  Low risk
+3  Moderate risk
 4  Some risk of forward integration
-3  Moderate risk
-2  Low risk
-1  Very unlikely supplier would compete</t>
+5  Very likely supplier could compete directly</t>
   </si>
   <si>
     <t>Most suppliers focus on components, not full smartphones. Only a few, like chip manufacturers, could theoretically enter the market, so risk is low–moderate.</t>
@@ -400,20 +396,17 @@
   <si>
     <t>What it measures: Supplier ability to increase prices or impose conditions.
 Scoring:
-5  High margin supplier; very likely to demand higher prices
+1  Low margins; minimal pricing power
+2  Low–moderate margins
+3  Moderate margins
 4  High–moderate margins
-3  Moderate margins
-2  Low–moderate margins
-1  Low margins; minimal pricing power</t>
+5  High margin supplier; very likely to demand higher prices</t>
   </si>
   <si>
     <t>Some suppliers have strong margins (high-end chips, OLEDs) and can increase prices slightly, but competition and Samsung’s scale limit excessive pricing.</t>
   </si>
   <si>
     <t>Bargaining Power of Buyers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combine dimensions to evaluate the bargaining power of buyers </t>
   </si>
   <si>
     <t>How to Calculate Overall Buyer Power
@@ -435,11 +428,11 @@
   <si>
     <t>What it measures: How many customers exist and whether a few buyers dominate sales.
 Scoring (1–5):
-5  Very few buyers; each can strongly influence terms
+1  Very large, dispersed customer base; minimal buyer power
+2  Many buyers; low concentration
+3  Several buyers; some concentration
 4  Few large buyers; moderate influence
-3  Several buyers; some concentration
-2  Many buyers; low concentration
-1  Very large, dispersed customer base; minimal buyer power</t>
+5  Very few buyers; each can strongly influence terms</t>
   </si>
   <si>
     <t>Millions of individual consumers; highly dispersed; no single buyer dominates.</t>
@@ -450,11 +443,11 @@
   <si>
     <t>What it measures: How much buyers care about price vs features/brand.
 Scoring (1–5):
-5  Extremely price-sensitive; will switch brands easily
+1  Very low sensitivity; brand loyalty strong
+2  Low sensitivity
+3  Moderate sensitivity
 4  High sensitivity
-3  Moderate sensitivity
-2  Low sensitivity
-1  Very low sensitivity; brand loyalty strong</t>
+5  Extremely price-sensitive; will switch brands easily</t>
   </si>
   <si>
     <t>High sensitivity; budget buyers switch easily, but loyal users value features/brand.</t>
@@ -465,11 +458,11 @@
   <si>
     <t>What it measures: Whether buyers can produce the smartphone themselves or bypass Samsung.
 Scoring (1–5):
-5  High risk; buyers could make the product themselves
+1  Very low risk
+2  Low risk
+3  Moderate risk
 4  Moderate–high risk
-3  Moderate risk
-2  Low risk
-1  Very low risk</t>
+5  High risk; buyers could make the product themselves</t>
   </si>
   <si>
     <t>Very low; manufacturing smartphones requires advanced technology and supply chain.</t>
@@ -480,11 +473,11 @@
   <si>
     <t>What it measures: How critical Samsung smartphones are to buyers’ needs.
 Scoring (1–5):
-5  Product is non-essential; buyer can easily replace
+1  Extremely essential; buyers unlikely to switch
+2  High importance
+3  Moderate importance
 4  Low importance
-3  Moderate importance
-2  High importance
-1  Extremely essential; buyers unlikely to switch</t>
+5  Product is non-essential; buyer can easily replace</t>
   </si>
   <si>
     <t>Smartphones are important but buyers can choose alternatives; moderate influence.</t>
@@ -508,9 +501,6 @@
     <t>Threat of Substitutes</t>
   </si>
   <si>
-    <t>Combine dimensions to evaluate the Threat of Substututes</t>
-  </si>
-  <si>
     <t>Average Score Threat Level
 1–2 Low Thre
 2.1–3 Moderate Threwer
@@ -609,6 +599,9 @@
 5 Imminent disruption; clear path to replacement via new tech (e.g., spatial computing). </t>
   </si>
   <si>
+    <t>AR glasses, Smart Lenses, 6G+thin clients,  Brain Computer Interface</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
@@ -829,7 +822,8 @@
 Weakness only in ultra-premium US/EU vs Apple.</t>
   </si>
   <si>
-    <t>https://interbrand.com/best-global-brands/global/</t>
+    <t>https://interbrand.com/best-global-brands/global/
+https://counterpointresearch.com/en/insights/global-smartphone-share</t>
   </si>
   <si>
     <t>Marketing capabilities</t>
@@ -958,6 +952,68 @@
     <t>Example (Samsung Context)</t>
   </si>
   <si>
+    <t>一、VRIO是什么？
+VRIO 是一种用于分析公司内部资源与能力，以判断其能否成为持续竞争优势来源的模型。
+它由著名战略学者 杰伊·巴尼 在1991年提出，是其 “资源基础观” 理论的核心分析工具。RBV理论认为，企业之所以能成功并获得超额利润，关键不在于外部市场环境，而在于其自身所拥有的独特且有价值的内部资源和能力。
+VRIO是四个问题的首字母缩写，企业可以用它来逐一审视其每一项关键资源或能力：
+V - Valuable（有价值的）
+R - Rare（稀有的）
+I - Inimitable（难以模仿的）
+O - Organized to Capture Value（被组织起来以捕捉价值的）
+二、VRIO的四个维度详解
+让我们来深入拆解这四个问题：
+1. V - 有价值吗？
+核心问题： 这项资源或能力能否帮助公司抓住外部机会、抵御外部威胁，从而为客户创造价值，并最终提升公司的盈利能力和效率？
+解释： 这是最基本的前提。如果一项资源连价值都没有，它就不可能成为优势。例如，一个高效的供应链系统可以降低成本、加快交付，这就是有价值的。
+如果答案是否定的： 那么这项资源会被视为企业的劣势。公司可能需要考虑淘汰或改进它。
+2. R - 稀有吗？
+核心问题： 这项有价值的资源或能力是否只被少数竞争对手所拥有？
+解释： 如果很多竞争对手都拥有同样的有价值资源，那么它只能让企业维持竞争均势，而无法获得超越对手的优势。例如，所有银行都有ATM机，这是有价值的，但并不稀有。
+如果答案是否定的（即不稀有）： 企业只能获得暂时的竞争均势。
+3. I - 难以模仿吗？
+核心问题： 不具备这项资源的竞争对手是否难以复制或获取它？
+解释： 即使资源是有价值且稀有的，如果竞争对手可以轻易模仿，那么优势也只是短暂的。难以模仿性通常源于：
+独特的历史条件： 如可口可乐的品牌历史和秘方。
+因果模糊性： 竞争对手不清楚优势的真正来源是什么（例如，强大的企业文化）。
+社会复杂性： 涉及复杂的人际关系、信任、声誉等（例如，谷歌的创新氛围）。
+专利保护： 法律壁垒。
+如果答案是否定的（即可被模仿）： 企业只能获得暂时的竞争优势。
+4. O - 被组织起来以捕捉价值吗？
+核心问题： 公司的组织结构、流程、文化和激励制度是否能够支持并充分利用这项资源，将其潜力转化为真正的利润？
+解释： 这是最后一道关卡。即使企业拥有价值高、稀有且难以模仿的资源，如果内部组织混乱、部门墙林立、激励机制不合理，也无法将资源的潜力发挥出来。例如，一家公司拥有顶尖的研发团队（V、R、I），但僵化的官僚体系或糟糕的营销部门无法将创新产品成功推向市场。
+如果答案是否定的： 这项资源将带来未利用的潜力，优势会被浪费。
+三、VRIO分析的结果矩阵
+通过对以上四个问题回答“是”或“否”，可以将资源分类，并判断其能带来何种层次的竞争优势：
+V R I O 带来的结果 竞争优势水平
+否 - - - 竞争劣势 劣势
+是 否 - - 竞争均势 无优势
+是 是 否 - 暂时的竞争优势 短期优势
+是 是 是 否 未利用的持久竞争优势 潜力未发挥的优势
+是 是 是 是 持久竞争优势 可持续的长期优势
+注：“-” 表示在该步骤已得出否定结论，后续问题无需再问。
+四、VRIO分析的实际应用步骤
+识别关键资源： 列出公司所有重要的有形资源（如设备、资金）、无形资源（如品牌、专利、技术）和能力（如管理能力、研发能力、营销能力）。
+应用VRIO问卷： 对每一项资源或能力，依次询问V、R、I、O四个问题。
+分类与得出结论： 根据上方的矩阵，确定每项资源所处的状态。
+制定战略：
+对于被判定为“持久竞争优势”的资源，战略应是保护和强化它们。
+对于“未利用的潜力”，战略是调整组织结构（如改变流程、激励机制）来释放价值。
+对于“暂时的优势”，战略是尽可能利用并设置模仿障碍，延长其生命周期。
+对于“竞争均势”或“劣势”，战略是外包、改进或淘汰。
+五、VRIO框架的优势与局限
+优势：
+系统性强： 提供了一个清晰、逻辑严谨的分析框架。
+聚焦内部： 弥补了SWOT等工具在内部分析上的不足，使分析更深入。
+实用性强： 直接与战略行动挂钩，帮助企业找到真正的核心竞争力。
+局限：
+静态分析： VRIO像是在某个时间点给企业拍快照，对动态变化的市场环境考虑不足。
+主观性： 对资源是否“稀有”、“难以模仿”的判断可能带有主观色彩。
+识别难度： 尤其是对于“因果模糊”的资源（如企业文化），很难准确识别和评估。
+总结
+VRIO框架是探寻企业核心竞争力的“侦探工具”。它通过一系列严格的拷问，帮助企业从纷繁复杂的内部资源中，筛选出那些真正能够支撑其长期生存与发展的、可持续的竞争优势源泉。它提醒管理者，不仅要关注外部市场机会，更要“向内看”，精心培育和保护那些有价值、稀有、难以模仿且被有效组织起来的独特资源。
+通常，VRIO会与 PESTEL、波特五力模型 等外部环境分析工具结合使用，以形成对企业战略态势的全面理解。</t>
+  </si>
+  <si>
     <t>Competitive Disadvantage</t>
   </si>
   <si>
@@ -970,10 +1026,10 @@
     <t>Firm underperforms rivals; needs to outsource, acquire, or compensate.</t>
   </si>
   <si>
-    <t>*(Not in your table, but e.g., lag in satellite messaging until Galaxy S24 added it)*</t>
-  </si>
-  <si>
-    <t>The firm possesses a resource, but it’s widely available and easily imitated — so it only allows the firm to *keep up*.</t>
+    <t>Not in your table, but e.g., lag in satellite messaging until Galaxy S24 added it</t>
+  </si>
+  <si>
+    <t>The firm possesses a resource, but it’s widely available and easily imitated — so it only allows the firm to keep up.</t>
   </si>
   <si>
     <t>V = Yes, R = No (Not rare)</t>
@@ -988,7 +1044,7 @@
     <t>Temporary Competitive Advantage</t>
   </si>
   <si>
-    <t>The firm has a valuable, rare, and costly-to-imitate resource — *but* it lacks organizational alignment to fully exploit it *yet*. Advantage is short-lived.</t>
+    <t>The firm has a valuable, rare, and costly-to-imitate resource — but it lacks organizational alignment to fully exploit it yet. Advantage is short-lived.</t>
   </si>
   <si>
     <t>V = Yes, R = Yes, I = High, O = No</t>
@@ -997,16 +1053,17 @@
     <t>First-mover edge, but rivals can catch up if firm doesn’t organize properly.</t>
   </si>
   <si>
-    <t>*(Rare in mature firms like Samsung; e.g., early Galaxy Z Flip hinge design before full production scaling)*</t>
-  </si>
-  <si>
-    <t>The firm exploits a valuable, rare, and moderately hard-to-imitate resource *effectively*.</t>
+    <t>Rare in mature firms like Samsung; e.g., early Galaxy Z Flip hinge design before full production scaling</t>
+  </si>
+  <si>
+    <t>The firm exploits a valuable, rare, and moderately hard-to-imitate resource effectively.</t>
   </si>
   <si>
     <t>V = Yes, R = Yes, I = Medium/High, O = Yes</t>
   </si>
   <si>
-    <t>Outperforms rivals *for now*; advantage may erode as rivals respond.</t>
+    <t>Outperforms rivals 
+for now; advantage may erode as rivals respond.</t>
   </si>
   <si>
     <t>Skilled workforce (in Android ecosystem), operational expertise in mass production.</t>
@@ -1015,7 +1072,7 @@
     <t>Sustainable Competitive Advantage</t>
   </si>
   <si>
-    <t>The firm controls a resource that is **valuable, rare, *very* costly to imitate**, and **fully leveraged organizationally** — creating long-term differentiation.</t>
+    <t>The firm controls a resource that is valuable, rare, very costly to imitate, and fully leveraged organizationally — creating long-term differentiation.</t>
   </si>
   <si>
     <t>V = Yes, R = Yes, I = Very High, O = Yes</t>
@@ -2410,6 +2467,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2466,9 +2526,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3003,570 +3060,573 @@
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.25" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.8671875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.0625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="41.1484375" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="25.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="24.8671875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="45.703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="14.0625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="41.1484375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="28">
         <v>4.16</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:5">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="28">
         <v>5</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="29">
         <v>4</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="29">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="29">
         <v>4</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="30">
         <v>3</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="28">
         <v>5</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="31">
+        <v>1.75</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30">
-        <v>1.75</v>
-      </c>
-      <c r="E9" s="14" t="s">
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" s="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A11" s="14"/>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" s="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" s="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" s="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="15"/>
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" s="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" s="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" s="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="14" t="s">
+      <c r="B18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="D18" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="14" t="s">
+    </row>
+    <row r="19" ht="33" customHeight="1" spans="1:5">
+      <c r="A19" s="15"/>
+      <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="C19" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="19" ht="33" customHeight="1" spans="1:5">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" ht="33" customHeight="1" spans="1:5">
+      <c r="A20" s="15"/>
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="20" ht="33" customHeight="1" spans="1:5">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" ht="33" customHeight="1" spans="1:5">
+      <c r="A21" s="15"/>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="21" ht="33" customHeight="1" spans="1:5">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" ht="33" customHeight="1" spans="1:5">
+      <c r="A22" s="15"/>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="22" ht="33" customHeight="1" spans="1:5">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" ht="33" customHeight="1" spans="1:5">
+      <c r="A23" s="15"/>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="23" ht="33" customHeight="1" spans="1:5">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" ht="33" customHeight="1" spans="1:5">
+      <c r="A24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" ht="33" customHeight="1" spans="1:5">
-      <c r="A24" s="14" t="s">
+      <c r="D24" s="30">
+        <v>2.4</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="14" t="s">
+    </row>
+    <row r="25" ht="33" customHeight="1" spans="1:5">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="D24" s="29">
-        <v>2</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" ht="33" customHeight="1" spans="1:5">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" ht="33" customHeight="1" spans="1:5">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>82</v>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="33" customHeight="1" spans="1:5">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>85</v>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="33" customHeight="1" spans="1:5">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>88</v>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" ht="33" customHeight="1" spans="1:5">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" ht="33" customHeight="1" spans="1:5">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14" t="s">
+    <row r="30" ht="33" customHeight="1" spans="1:5">
+      <c r="A30" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="B30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="31">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D30" s="29">
+        <v>2.8</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="30" ht="33" customHeight="1" spans="1:5">
-      <c r="A30" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="28">
-        <v>2.8</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" ht="33" customHeight="1" spans="1:5">
       <c r="A31" s="32"/>
-      <c r="B31" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>98</v>
+      <c r="B31" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="33" customHeight="1" spans="1:5">
       <c r="A32" s="32"/>
-      <c r="B32" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>101</v>
+      <c r="B32" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:5">
       <c r="A33" s="32"/>
-      <c r="B33" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>104</v>
+      <c r="B33" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" ht="33" customHeight="1" spans="1:5">
       <c r="A34" s="32"/>
-      <c r="B34" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>107</v>
+      <c r="B34" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="33" customHeight="1" spans="1:5">
       <c r="A35" s="32"/>
-      <c r="B35" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>110</v>
+      <c r="B35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="29" customHeight="1" spans="1:5">
-      <c r="B36" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>113</v>
+      <c r="B36" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="D36" s="33">
         <v>4</v>
       </c>
+      <c r="E36" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="14"/>
+      <c r="A38" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3593,72 +3653,72 @@
   <sheetData>
     <row r="1" ht="17" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" ht="51" spans="1:4">
       <c r="A3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" ht="34" spans="1:4">
       <c r="A4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" ht="34" spans="1:4">
       <c r="A5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3672,691 +3732,691 @@
   <sheetPr/>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="12" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.1953125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="19.265625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.8046875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.421875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7.6796875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.234375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="16.796875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="37.4921875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="46.09375" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="12" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.265625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.8046875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.421875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.6796875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.234375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="16.796875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="37.4921875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="46.09375" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="34" spans="1:11">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="14" customFormat="1" ht="34" spans="1:11">
+      <c r="A1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="17" t="s">
+    </row>
+    <row r="2" ht="135" spans="1:11">
+      <c r="A2" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" ht="135" spans="1:11">
-      <c r="A2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="H2" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="K2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="14" t="s">
+    </row>
+    <row r="3" ht="168" spans="1:11">
+      <c r="A3" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" ht="34" spans="1:11">
+      <c r="A4" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="J4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" ht="118" spans="1:11">
+      <c r="A5" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="E5" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" ht="168" spans="1:11">
-      <c r="A3" s="14" t="s">
+      <c r="H5" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" ht="101" spans="1:11">
+      <c r="A6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" ht="34" spans="1:11">
+      <c r="A7" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" ht="135" spans="1:11">
+      <c r="A8" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="J8" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" ht="34" spans="1:11">
+      <c r="A9" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="J9" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" ht="68" spans="1:11">
+      <c r="A10" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" ht="34" spans="1:11">
+      <c r="A11" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="J11" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" ht="68" spans="1:11">
+      <c r="A12" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" ht="51" spans="1:11">
+      <c r="A13" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" ht="34" spans="1:11">
-      <c r="A4" s="14" t="s">
+      <c r="J13" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" ht="51" spans="1:11">
+      <c r="A14" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" ht="135" spans="1:11">
+      <c r="A15" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" ht="135" spans="1:11">
+      <c r="A16" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="E16" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" ht="118" spans="1:11">
-      <c r="A5" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" ht="101" spans="1:11">
-      <c r="A6" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" ht="34" spans="1:11">
-      <c r="A7" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" ht="135" spans="1:11">
-      <c r="A8" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" ht="34" spans="1:11">
-      <c r="A9" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" ht="68" spans="1:11">
-      <c r="A10" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" ht="34" spans="1:11">
-      <c r="A11" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" ht="68" spans="1:11">
-      <c r="A12" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="J16" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" ht="68" spans="1:11">
+      <c r="A17" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" ht="51" spans="1:11">
-      <c r="A13" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" ht="51" spans="1:11">
-      <c r="A14" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" ht="135" spans="1:11">
-      <c r="A15" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" ht="135" spans="1:11">
-      <c r="A16" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J16" s="14" t="s">
+      <c r="D17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K17" s="20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" ht="68" spans="1:11">
-      <c r="A17" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="14" t="s">
+    <row r="18" ht="84" spans="1:11">
+      <c r="A18" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J17" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="D18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="18" ht="84" spans="1:11">
-      <c r="A18" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="H18" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="J18" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="1048569" s="14" customFormat="1" spans="5:12">
-      <c r="E1048569" s="15"/>
-      <c r="F1048569" s="15"/>
-      <c r="G1048569" s="15"/>
-      <c r="H1048569" s="15"/>
-      <c r="K1048569" s="17"/>
-      <c r="L1048569" s="16"/>
-    </row>
-    <row r="1048570" s="14" customFormat="1" spans="5:12">
-      <c r="E1048570" s="15"/>
-      <c r="F1048570" s="15"/>
-      <c r="G1048570" s="15"/>
-      <c r="H1048570" s="15"/>
-      <c r="L1048570" s="16"/>
-    </row>
-    <row r="1048571" s="14" customFormat="1" spans="5:12">
-      <c r="E1048571" s="15"/>
-      <c r="F1048571" s="15"/>
-      <c r="G1048571" s="15"/>
-      <c r="H1048571" s="15"/>
-      <c r="L1048571" s="16"/>
-    </row>
-    <row r="1048572" s="14" customFormat="1" spans="5:12">
-      <c r="E1048572" s="15"/>
-      <c r="F1048572" s="15"/>
-      <c r="G1048572" s="15"/>
-      <c r="H1048572" s="15"/>
-      <c r="L1048572" s="16"/>
-    </row>
-    <row r="1048573" s="14" customFormat="1" spans="5:12">
-      <c r="E1048573" s="15"/>
-      <c r="F1048573" s="15"/>
-      <c r="G1048573" s="15"/>
-      <c r="H1048573" s="15"/>
-      <c r="L1048573" s="16"/>
-    </row>
-    <row r="1048574" s="14" customFormat="1" spans="5:12">
-      <c r="E1048574" s="15"/>
-      <c r="F1048574" s="15"/>
-      <c r="G1048574" s="15"/>
-      <c r="H1048574" s="15"/>
-      <c r="L1048574" s="16"/>
-    </row>
-    <row r="1048575" s="14" customFormat="1" spans="5:12">
-      <c r="E1048575" s="15"/>
-      <c r="F1048575" s="15"/>
-      <c r="G1048575" s="15"/>
-      <c r="H1048575" s="15"/>
-      <c r="L1048575" s="16"/>
-    </row>
-    <row r="1048576" s="14" customFormat="1" spans="5:12">
-      <c r="E1048576" s="15"/>
-      <c r="F1048576" s="15"/>
-      <c r="G1048576" s="15"/>
-      <c r="H1048576" s="15"/>
-      <c r="L1048576" s="16"/>
+    </row>
+    <row r="1048569" s="15" customFormat="1" spans="5:12">
+      <c r="E1048569" s="16"/>
+      <c r="F1048569" s="16"/>
+      <c r="G1048569" s="16"/>
+      <c r="H1048569" s="16"/>
+      <c r="K1048569" s="18"/>
+      <c r="L1048569" s="17"/>
+    </row>
+    <row r="1048570" s="15" customFormat="1" spans="5:12">
+      <c r="E1048570" s="16"/>
+      <c r="F1048570" s="16"/>
+      <c r="G1048570" s="16"/>
+      <c r="H1048570" s="16"/>
+      <c r="L1048570" s="17"/>
+    </row>
+    <row r="1048571" s="15" customFormat="1" spans="5:12">
+      <c r="E1048571" s="16"/>
+      <c r="F1048571" s="16"/>
+      <c r="G1048571" s="16"/>
+      <c r="H1048571" s="16"/>
+      <c r="L1048571" s="17"/>
+    </row>
+    <row r="1048572" s="15" customFormat="1" spans="5:12">
+      <c r="E1048572" s="16"/>
+      <c r="F1048572" s="16"/>
+      <c r="G1048572" s="16"/>
+      <c r="H1048572" s="16"/>
+      <c r="L1048572" s="17"/>
+    </row>
+    <row r="1048573" s="15" customFormat="1" spans="5:12">
+      <c r="E1048573" s="16"/>
+      <c r="F1048573" s="16"/>
+      <c r="G1048573" s="16"/>
+      <c r="H1048573" s="16"/>
+      <c r="L1048573" s="17"/>
+    </row>
+    <row r="1048574" s="15" customFormat="1" spans="5:12">
+      <c r="E1048574" s="16"/>
+      <c r="F1048574" s="16"/>
+      <c r="G1048574" s="16"/>
+      <c r="H1048574" s="16"/>
+      <c r="L1048574" s="17"/>
+    </row>
+    <row r="1048575" s="15" customFormat="1" spans="5:12">
+      <c r="E1048575" s="16"/>
+      <c r="F1048575" s="16"/>
+      <c r="G1048575" s="16"/>
+      <c r="H1048575" s="16"/>
+      <c r="L1048575" s="17"/>
+    </row>
+    <row r="1048576" s="15" customFormat="1" spans="5:12">
+      <c r="E1048576" s="16"/>
+      <c r="F1048576" s="16"/>
+      <c r="G1048576" s="16"/>
+      <c r="H1048576" s="16"/>
+      <c r="L1048576" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4364,7 +4424,7 @@
     <hyperlink ref="K4" r:id="rId2" display="https://semiconductor.samsung.com/foundry/manufacturing/"/>
     <hyperlink ref="K5" r:id="rId3" display="https://iottechnews.com/news/samsung-manufacturing-digital-twins-ai-and-robotics/"/>
     <hyperlink ref="K7" r:id="rId4" display="https://www.idc.com/promo/smartphone-market-share/market-share/"/>
-    <hyperlink ref="K8" r:id="rId5" display="https://interbrand.com/best-global-brands/global/"/>
+    <hyperlink ref="K8" r:id="rId5" display="https://interbrand.com/best-global-brands/global/&#10;https://counterpointresearch.com/en/insights/global-smartphone-share"/>
     <hyperlink ref="K10" r:id="rId6" display="https://counterpointresearch.com/en/insights/apples-device-ecosystem-multiplies-its-brand-strength"/>
     <hyperlink ref="K16" r:id="rId7" display="https://www.rdworldonline.com/top-15-rd-spenders-of-2024/#:~:text=In%20the%20case%20of%20Huawei,rates%20during%20the%20relevant%20periods."/>
     <hyperlink ref="K17" r:id="rId8" display="https://signal65.com/samsung-galaxy-ai-revolution/&#10;https://counterpointresearch.com/en/insights/post-insight-counterpoint-conversations-samsung-agentic-ai-strategy-seamless-secure-user-interactions"/>
@@ -4377,122 +4437,135 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="27.34375" style="10" customWidth="1"/>
     <col min="2" max="5" width="32.7578125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.4375" style="9"/>
+    <col min="6" max="6" width="8.4375" style="9"/>
+    <col min="7" max="7" width="141.8046875" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.4375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="18" spans="1:5">
+    <row r="1" s="9" customFormat="1" ht="18" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="2" s="9" customFormat="1" ht="36" spans="1:7">
+      <c r="A2" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" s="9" customFormat="1" ht="53" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="53" spans="1:7">
+      <c r="A3" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="53" spans="1:5">
-      <c r="A3" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="71" spans="1:7">
+      <c r="A4" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="71" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" s="9" customFormat="1" ht="53" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="5" s="9" customFormat="1" ht="53" spans="1:5">
-      <c r="A5" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="71" spans="1:7">
+      <c r="A6" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="88" spans="1:5">
-      <c r="A6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>243</v>
-      </c>
+      <c r="G6" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:G6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4516,44 +4589,44 @@
   <sheetData>
     <row r="1" ht="17" spans="1:3">
       <c r="A1" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" ht="152" spans="1:3">
       <c r="A2" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" ht="168" spans="1:3">
       <c r="A3" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:3">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4585,128 +4658,128 @@
   <sheetData>
     <row r="1" ht="17" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" ht="34" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" ht="34" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="4" ht="34" spans="1:4">
       <c r="A4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="5" ht="34" spans="1:4">
       <c r="A5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:4">
       <c r="A6" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="7" ht="17" spans="1:4">
       <c r="A7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="8" ht="17" spans="1:4">
       <c r="A8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="9" ht="17" spans="1:4">
       <c r="A9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
